--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>6.852071208568333</v>
+        <v>3.629180484241667</v>
       </c>
       <c r="R2">
-        <v>61.668640877115</v>
+        <v>32.66262435817499</v>
       </c>
       <c r="S2">
-        <v>0.02615601843498246</v>
+        <v>0.01864572667015204</v>
       </c>
       <c r="T2">
-        <v>0.02615601843498246</v>
+        <v>0.01864572667015204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>49.87602349525199</v>
+        <v>19.808142579204</v>
       </c>
       <c r="R3">
-        <v>448.8842114572679</v>
+        <v>178.273283212836</v>
       </c>
       <c r="S3">
-        <v>0.190388883929594</v>
+        <v>0.1017687640443743</v>
       </c>
       <c r="T3">
-        <v>0.190388883929594</v>
+        <v>0.1017687640443743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.5811615978879999</v>
+        <v>0.4323425898143334</v>
       </c>
       <c r="R4">
-        <v>5.230454380992</v>
+        <v>3.891083308329</v>
       </c>
       <c r="S4">
-        <v>0.002218434836032367</v>
+        <v>0.002221256780297101</v>
       </c>
       <c r="T4">
-        <v>0.002218434836032367</v>
+        <v>0.002221256780297101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H5">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I5">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J5">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>10.82520533885033</v>
+        <v>5.087966330829667</v>
       </c>
       <c r="R5">
-        <v>97.42684804965299</v>
+        <v>45.79169697746699</v>
       </c>
       <c r="S5">
-        <v>0.04132243547781224</v>
+        <v>0.02614056532143223</v>
       </c>
       <c r="T5">
-        <v>0.04132243547781224</v>
+        <v>0.02614056532143223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H6">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I6">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J6">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.4104984731286666</v>
+        <v>0.212601333686</v>
       </c>
       <c r="R6">
-        <v>3.694486258157999</v>
+        <v>1.913412003174</v>
       </c>
       <c r="S6">
-        <v>0.001566972277996647</v>
+        <v>0.001092286915691177</v>
       </c>
       <c r="T6">
-        <v>0.001566972277996647</v>
+        <v>0.001092286915691177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>10.29036383065889</v>
+        <v>13.72351927967222</v>
       </c>
       <c r="R7">
-        <v>92.61327447593</v>
+        <v>123.51167351705</v>
       </c>
       <c r="S7">
-        <v>0.03928081566356455</v>
+        <v>0.07050765057081429</v>
       </c>
       <c r="T7">
-        <v>0.03928081566356455</v>
+        <v>0.07050765057081428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>74.903253712664</v>
+        <v>74.90325371266401</v>
       </c>
       <c r="R8">
-        <v>674.1292834139758</v>
+        <v>674.1292834139759</v>
       </c>
       <c r="S8">
-        <v>0.2859238944421238</v>
+        <v>0.3848322235545183</v>
       </c>
       <c r="T8">
-        <v>0.2859238944421238</v>
+        <v>0.3848322235545182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>0.8727819814826666</v>
+        <v>1.634876494157111</v>
       </c>
       <c r="R9">
-        <v>7.855037833343999</v>
+        <v>14.713888447414</v>
       </c>
       <c r="S9">
-        <v>0.003331620600911841</v>
+        <v>0.008399543748753395</v>
       </c>
       <c r="T9">
-        <v>0.003331620600911841</v>
+        <v>0.008399543748753393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>16.25717218744956</v>
+        <v>19.23982682554689</v>
       </c>
       <c r="R10">
-        <v>146.314549687046</v>
+        <v>173.158441429922</v>
       </c>
       <c r="S10">
-        <v>0.06205757098727824</v>
+        <v>0.09884891471446526</v>
       </c>
       <c r="T10">
-        <v>0.06205757098727824</v>
+        <v>0.09884891471446525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>0.6164820113284444</v>
+        <v>0.8039386617426666</v>
       </c>
       <c r="R11">
-        <v>5.548338101955999</v>
+        <v>7.235447955683999</v>
       </c>
       <c r="S11">
-        <v>0.002353261424513267</v>
+        <v>0.004130414734541319</v>
       </c>
       <c r="T11">
-        <v>0.002353261424513267</v>
+        <v>0.004130414734541318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H12">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I12">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J12">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>0.2053388059061111</v>
+        <v>6.552235264244444</v>
       </c>
       <c r="R12">
-        <v>1.848049253155</v>
+        <v>58.97011737819999</v>
       </c>
       <c r="S12">
-        <v>0.0007838280469095868</v>
+        <v>0.03366357455797945</v>
       </c>
       <c r="T12">
-        <v>0.0007838280469095869</v>
+        <v>0.03366357455797945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H13">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I13">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J13">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>1.494655089844</v>
+        <v>35.762236375456</v>
       </c>
       <c r="R13">
-        <v>13.451895808596</v>
+        <v>321.860127379104</v>
       </c>
       <c r="S13">
-        <v>0.005705461150931086</v>
+        <v>0.1837364902256865</v>
       </c>
       <c r="T13">
-        <v>0.005705461150931085</v>
+        <v>0.1837364902256865</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H14">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I14">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J14">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>0.01741590606933333</v>
+        <v>0.7805647516062222</v>
       </c>
       <c r="R14">
-        <v>0.156743154624</v>
+        <v>7.025082764455999</v>
       </c>
       <c r="S14">
-        <v>6.64807393772815E-05</v>
+        <v>0.004010326041926212</v>
       </c>
       <c r="T14">
-        <v>6.648073937728151E-05</v>
+        <v>0.004010326041926211</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H15">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I15">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J15">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>0.3244033329934444</v>
+        <v>9.185972580009777</v>
       </c>
       <c r="R15">
-        <v>2.919629996941</v>
+        <v>82.67375322008799</v>
       </c>
       <c r="S15">
-        <v>0.001238326237406274</v>
+        <v>0.04719498924621908</v>
       </c>
       <c r="T15">
-        <v>0.001238326237406274</v>
+        <v>0.04719498924621908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H16">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I16">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J16">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>0.01230157476955555</v>
+        <v>0.3838370568373333</v>
       </c>
       <c r="R16">
-        <v>0.110714172926</v>
+        <v>3.454533511536</v>
       </c>
       <c r="S16">
-        <v>4.695809583085734E-05</v>
+        <v>0.00197204875280817</v>
       </c>
       <c r="T16">
-        <v>4.695809583085734E-05</v>
+        <v>0.00197204875280817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H17">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N17">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O17">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P17">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q17">
-        <v>8.83987883823389</v>
+        <v>0.3108145733777778</v>
       </c>
       <c r="R17">
-        <v>79.55890954410501</v>
+        <v>2.7973311604</v>
       </c>
       <c r="S17">
-        <v>0.03374396249220638</v>
+        <v>0.001596879407201189</v>
       </c>
       <c r="T17">
-        <v>0.03374396249220637</v>
+        <v>0.001596879407201189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H18">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N18">
         <v>223.948188</v>
       </c>
       <c r="O18">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P18">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q18">
-        <v>64.345216389404</v>
+        <v>1.696432407232</v>
       </c>
       <c r="R18">
-        <v>579.106947504636</v>
+        <v>15.267891665088</v>
       </c>
       <c r="S18">
-        <v>0.2456213041072343</v>
+        <v>0.008715801023669787</v>
       </c>
       <c r="T18">
-        <v>0.2456213041072342</v>
+        <v>0.008715801023669785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H19">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N19">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O19">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P19">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q19">
-        <v>0.7497584240426668</v>
+        <v>0.03702719613688889</v>
       </c>
       <c r="R19">
-        <v>6.747825816384001</v>
+        <v>0.333244765232</v>
       </c>
       <c r="S19">
-        <v>0.002862009830913715</v>
+        <v>0.0001902355040010642</v>
       </c>
       <c r="T19">
-        <v>0.002862009830913715</v>
+        <v>0.0001902355040010642</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H20">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N20">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q20">
-        <v>13.96563180411456</v>
+        <v>0.4357496386151111</v>
       </c>
       <c r="R20">
-        <v>125.690686237031</v>
+        <v>3.921746747536</v>
       </c>
       <c r="S20">
-        <v>0.05331020530957387</v>
+        <v>0.002238761255747416</v>
       </c>
       <c r="T20">
-        <v>0.05331020530957386</v>
+        <v>0.002238761255747416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H21">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N21">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O21">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P21">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q21">
-        <v>0.5295853845184444</v>
+        <v>0.01820785522133333</v>
       </c>
       <c r="R21">
-        <v>4.766268460666</v>
+        <v>0.163870696992</v>
       </c>
       <c r="S21">
-        <v>0.00202155591480724</v>
+        <v>9.354692972168942E-05</v>
       </c>
       <c r="T21">
-        <v>0.00202155591480724</v>
+        <v>9.354692972168942E-05</v>
       </c>
     </row>
   </sheetData>
